--- a/Project/project/stores/static/stores_db.xlsx
+++ b/Project/project/stores/static/stores_db.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K750"/>
+  <dimension ref="A1:K755"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37187,6 +37187,251 @@
         <v>89</v>
       </c>
     </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="B751" t="n">
+        <v>752</v>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="E751" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="F751" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="G751" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="H751" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="I751" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="J751" t="n">
+        <v>2</v>
+      </c>
+      <c r="K751" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="B752" t="n">
+        <v>753</v>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>adfgfdgfdgfd</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="E752" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="F752" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="G752" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="H752" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="I752" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="J752" t="n">
+        <v>2</v>
+      </c>
+      <c r="K752" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="B753" t="n">
+        <v>754</v>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>adfgfdgfdgfd</t>
+        </is>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="E753" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="F753" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="G753" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="H753" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="I753" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="J753" t="n">
+        <v>2</v>
+      </c>
+      <c r="K753" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="B754" t="n">
+        <v>755</v>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>Alibaba</t>
+        </is>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="E754" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="F754" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="G754" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="H754" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="I754" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="J754" t="n">
+        <v>2</v>
+      </c>
+      <c r="K754" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="B755" t="n">
+        <v>756</v>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>Alibaba</t>
+        </is>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="E755" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="F755" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="G755" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="H755" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="I755" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="J755" t="n">
+        <v>2</v>
+      </c>
+      <c r="K755" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Project/project/stores/static/stores_db.xlsx
+++ b/Project/project/stores/static/stores_db.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K755"/>
+  <dimension ref="A1:K761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37432,6 +37432,300 @@
         <v>4</v>
       </c>
     </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>754</v>
+      </c>
+      <c r="B756" t="n">
+        <v>757</v>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>asaas</t>
+        </is>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>asas</t>
+        </is>
+      </c>
+      <c r="E756" t="inlineStr">
+        <is>
+          <t>asas</t>
+        </is>
+      </c>
+      <c r="F756" t="inlineStr">
+        <is>
+          <t>asas</t>
+        </is>
+      </c>
+      <c r="G756" t="inlineStr">
+        <is>
+          <t>sasa</t>
+        </is>
+      </c>
+      <c r="H756" t="inlineStr">
+        <is>
+          <t>saas</t>
+        </is>
+      </c>
+      <c r="I756" t="inlineStr">
+        <is>
+          <t>sasa</t>
+        </is>
+      </c>
+      <c r="J756" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K756" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>755</v>
+      </c>
+      <c r="B757" t="n">
+        <v>758</v>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>asaas</t>
+        </is>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>asas</t>
+        </is>
+      </c>
+      <c r="E757" t="inlineStr">
+        <is>
+          <t>asas</t>
+        </is>
+      </c>
+      <c r="F757" t="inlineStr">
+        <is>
+          <t>asas</t>
+        </is>
+      </c>
+      <c r="G757" t="inlineStr">
+        <is>
+          <t>sasa</t>
+        </is>
+      </c>
+      <c r="H757" t="inlineStr">
+        <is>
+          <t>saas</t>
+        </is>
+      </c>
+      <c r="I757" t="inlineStr">
+        <is>
+          <t>sasa</t>
+        </is>
+      </c>
+      <c r="J757" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K757" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>756</v>
+      </c>
+      <c r="B758" t="n">
+        <v>759</v>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>asaas</t>
+        </is>
+      </c>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>asas</t>
+        </is>
+      </c>
+      <c r="E758" t="inlineStr">
+        <is>
+          <t>asas</t>
+        </is>
+      </c>
+      <c r="F758" t="inlineStr">
+        <is>
+          <t>asas</t>
+        </is>
+      </c>
+      <c r="G758" t="inlineStr">
+        <is>
+          <t>sasa</t>
+        </is>
+      </c>
+      <c r="H758" t="inlineStr">
+        <is>
+          <t>saas</t>
+        </is>
+      </c>
+      <c r="I758" t="inlineStr">
+        <is>
+          <t>sasa</t>
+        </is>
+      </c>
+      <c r="J758" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K758" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>757</v>
+      </c>
+      <c r="B759" t="n">
+        <v>760</v>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>asaas</t>
+        </is>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>asas</t>
+        </is>
+      </c>
+      <c r="E759" t="inlineStr">
+        <is>
+          <t>asas</t>
+        </is>
+      </c>
+      <c r="F759" t="inlineStr">
+        <is>
+          <t>asas</t>
+        </is>
+      </c>
+      <c r="G759" t="inlineStr">
+        <is>
+          <t>sasa</t>
+        </is>
+      </c>
+      <c r="H759" t="inlineStr">
+        <is>
+          <t>saas</t>
+        </is>
+      </c>
+      <c r="I759" t="inlineStr">
+        <is>
+          <t>sasa</t>
+        </is>
+      </c>
+      <c r="J759" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K759" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>758</v>
+      </c>
+      <c r="B760" t="n">
+        <v>761</v>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>asaas</t>
+        </is>
+      </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>asas</t>
+        </is>
+      </c>
+      <c r="E760" t="inlineStr">
+        <is>
+          <t>asas</t>
+        </is>
+      </c>
+      <c r="F760" t="inlineStr">
+        <is>
+          <t>asas</t>
+        </is>
+      </c>
+      <c r="G760" t="inlineStr">
+        <is>
+          <t>sasa</t>
+        </is>
+      </c>
+      <c r="H760" t="inlineStr">
+        <is>
+          <t>saas</t>
+        </is>
+      </c>
+      <c r="I760" t="inlineStr">
+        <is>
+          <t>sasa</t>
+        </is>
+      </c>
+      <c r="J760" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K760" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>759</v>
+      </c>
+      <c r="B761" t="n">
+        <v>762</v>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>asaas</t>
+        </is>
+      </c>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>asas</t>
+        </is>
+      </c>
+      <c r="E761" t="inlineStr">
+        <is>
+          <t>asas</t>
+        </is>
+      </c>
+      <c r="F761" t="inlineStr">
+        <is>
+          <t>asas</t>
+        </is>
+      </c>
+      <c r="G761" t="inlineStr">
+        <is>
+          <t>sasa</t>
+        </is>
+      </c>
+      <c r="H761" t="inlineStr">
+        <is>
+          <t>saas</t>
+        </is>
+      </c>
+      <c r="I761" t="inlineStr">
+        <is>
+          <t>sasa</t>
+        </is>
+      </c>
+      <c r="J761" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K761" t="n">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
